--- a/examples/sources/data/unsolved/to_schedule/2018-11-23.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-11-23.xlsx
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2">
         <v>43427</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95">
         <v>1</v>

--- a/examples/sources/data/unsolved/to_schedule/2018-11-23.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-11-23.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\optaplanner-time\examples\sources\data\unsolved\to_schedule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E5751E-C8E0-42F5-97CB-7B000657CC45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="645" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audiencias" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -481,11 +487,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +555,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -595,7 +609,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,9 +641,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,6 +693,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -836,14 +886,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>96749</v>
       </c>
@@ -940,7 +995,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>96750</v>
       </c>
@@ -990,7 +1045,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>96750</v>
       </c>
@@ -1040,7 +1095,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>96751</v>
       </c>
@@ -1081,7 +1136,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>96753</v>
       </c>
@@ -1122,7 +1177,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>96754</v>
       </c>
@@ -1163,7 +1218,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>96754</v>
       </c>
@@ -1204,7 +1259,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>96755</v>
       </c>
@@ -1254,7 +1309,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>96757</v>
       </c>
@@ -1295,7 +1350,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>96757</v>
       </c>
@@ -1336,7 +1391,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>96759</v>
       </c>
@@ -1377,7 +1432,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>96760</v>
       </c>
@@ -1418,7 +1473,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>96762</v>
       </c>
@@ -1459,7 +1514,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>96763</v>
       </c>
@@ -1500,7 +1555,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>96764</v>
       </c>
@@ -1541,7 +1596,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>96765</v>
       </c>
@@ -1582,7 +1637,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>96766</v>
       </c>
@@ -1623,7 +1678,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>96767</v>
       </c>
@@ -1664,7 +1719,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>96768</v>
       </c>
@@ -1705,7 +1760,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>96768</v>
       </c>
@@ -1746,7 +1801,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>96769</v>
       </c>
@@ -1796,7 +1851,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>96770</v>
       </c>
@@ -1837,7 +1892,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>96771</v>
       </c>
@@ -1878,7 +1933,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>96771</v>
       </c>
@@ -1919,7 +1974,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>96772</v>
       </c>
@@ -1960,7 +2015,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>96773</v>
       </c>
@@ -2001,7 +2056,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>96774</v>
       </c>
@@ -2042,7 +2097,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>96775</v>
       </c>
@@ -2083,7 +2138,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>96776</v>
       </c>
@@ -2124,7 +2179,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>96779</v>
       </c>
@@ -2174,7 +2229,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>96780</v>
       </c>
@@ -2215,7 +2270,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>96780</v>
       </c>
@@ -2256,7 +2311,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>96781</v>
       </c>
@@ -2297,7 +2352,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>96782</v>
       </c>
@@ -2338,7 +2393,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>96783</v>
       </c>
@@ -2379,7 +2434,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>96784</v>
       </c>
@@ -2420,7 +2475,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>96785</v>
       </c>
@@ -2470,7 +2525,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>96786</v>
       </c>
@@ -2511,7 +2566,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>96786</v>
       </c>
@@ -2552,7 +2607,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>96787</v>
       </c>
@@ -2593,7 +2648,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>96788</v>
       </c>
@@ -2634,7 +2689,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>96789</v>
       </c>
@@ -2675,7 +2730,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>96790</v>
       </c>
@@ -2716,7 +2771,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>96791</v>
       </c>
@@ -2757,7 +2812,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>96793</v>
       </c>
@@ -2798,7 +2853,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>96793</v>
       </c>
@@ -2839,7 +2894,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>96793</v>
       </c>
@@ -2880,7 +2935,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>96796</v>
       </c>
@@ -2921,7 +2976,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>96797</v>
       </c>
@@ -2971,7 +3026,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>96798</v>
       </c>
@@ -3012,7 +3067,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>96799</v>
       </c>
@@ -3062,7 +3117,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>96800</v>
       </c>
@@ -3103,7 +3158,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>96801</v>
       </c>
@@ -3144,7 +3199,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>96801</v>
       </c>
@@ -3185,7 +3240,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>96802</v>
       </c>
@@ -3226,7 +3281,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>96803</v>
       </c>
@@ -3267,7 +3322,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>96803</v>
       </c>
@@ -3308,7 +3363,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>96803</v>
       </c>
@@ -3349,7 +3404,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>96803</v>
       </c>
@@ -3390,7 +3445,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>96804</v>
       </c>
@@ -3431,7 +3486,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>96804</v>
       </c>
@@ -3472,7 +3527,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>96805</v>
       </c>
@@ -3513,7 +3568,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>96805</v>
       </c>
@@ -3554,7 +3609,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>96806</v>
       </c>
@@ -3595,7 +3650,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>96806</v>
       </c>
@@ -3636,7 +3691,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>96806</v>
       </c>
@@ -3677,7 +3732,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>96806</v>
       </c>
@@ -3718,7 +3773,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>96807</v>
       </c>
@@ -3759,7 +3814,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>96808</v>
       </c>
@@ -3809,7 +3864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>96808</v>
       </c>
@@ -3859,7 +3914,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>96808</v>
       </c>
@@ -3909,7 +3964,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>96809</v>
       </c>
@@ -3959,7 +4014,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>96809</v>
       </c>
@@ -4009,7 +4064,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>96809</v>
       </c>
@@ -4059,7 +4114,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>96809</v>
       </c>
@@ -4109,7 +4164,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>96810</v>
       </c>
@@ -4159,7 +4214,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>96811</v>
       </c>
@@ -4200,7 +4255,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>96812</v>
       </c>
@@ -4241,7 +4296,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>96813</v>
       </c>
@@ -4282,7 +4337,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>96814</v>
       </c>
@@ -4332,7 +4387,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>96815</v>
       </c>
@@ -4373,7 +4428,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>96816</v>
       </c>
@@ -4423,7 +4478,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>96817</v>
       </c>
@@ -4464,7 +4519,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>96818</v>
       </c>
@@ -4505,7 +4560,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>96819</v>
       </c>
@@ -4546,7 +4601,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>96820</v>
       </c>
@@ -4587,7 +4642,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>96821</v>
       </c>
@@ -4637,7 +4692,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>96822</v>
       </c>
@@ -4678,7 +4733,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>96823</v>
       </c>
@@ -4719,7 +4774,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>96824</v>
       </c>
@@ -4769,7 +4824,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>96825</v>
       </c>
@@ -4819,7 +4874,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>96826</v>
       </c>
@@ -4860,7 +4915,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>96827</v>
       </c>
@@ -4901,7 +4956,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>96828</v>
       </c>
@@ -4942,7 +4997,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96829</v>
       </c>
@@ -4983,7 +5038,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96830</v>
       </c>
@@ -5024,7 +5079,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96831</v>
       </c>
@@ -5074,7 +5129,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96832</v>
       </c>
@@ -5124,7 +5179,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96833</v>
       </c>
@@ -5174,7 +5229,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>96834</v>
       </c>
@@ -5215,7 +5270,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>96834</v>
       </c>
@@ -5256,7 +5311,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>96835</v>
       </c>
@@ -5306,7 +5361,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>96836</v>
       </c>
@@ -5356,7 +5411,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>96837</v>
       </c>
@@ -5406,7 +5461,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>96838</v>
       </c>
@@ -5447,7 +5502,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>96838</v>
       </c>
@@ -5488,7 +5543,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>96839</v>
       </c>
@@ -5529,7 +5584,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>96840</v>
       </c>
@@ -5579,7 +5634,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>96841</v>
       </c>
@@ -5620,7 +5675,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>96842</v>
       </c>
@@ -5661,7 +5716,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>96842</v>
       </c>
@@ -5702,7 +5757,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>96843</v>
       </c>
@@ -5752,7 +5807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>96844</v>
       </c>
@@ -5802,7 +5857,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>96845</v>
       </c>
@@ -5843,7 +5898,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>96846</v>
       </c>
@@ -5893,7 +5948,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>96847</v>
       </c>
@@ -5943,7 +5998,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>96848</v>
       </c>
@@ -5984,7 +6039,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>96850</v>
       </c>
@@ -6025,7 +6080,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>96850</v>
       </c>
@@ -6066,7 +6121,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>96851</v>
       </c>
@@ -6116,7 +6171,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>96852</v>
       </c>
@@ -6166,7 +6221,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>96852</v>
       </c>
@@ -6216,7 +6271,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>96852</v>
       </c>
@@ -6266,7 +6321,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>96853</v>
       </c>
@@ -6307,7 +6362,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>96854</v>
       </c>
@@ -6348,7 +6403,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>96855</v>
       </c>
@@ -6398,7 +6453,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>96856</v>
       </c>
@@ -6439,7 +6494,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>96857</v>
       </c>
@@ -6480,7 +6535,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>96858</v>
       </c>
@@ -6530,7 +6585,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>96859</v>
       </c>
@@ -6571,7 +6626,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>96859</v>
       </c>
@@ -6612,7 +6667,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>96860</v>
       </c>
@@ -6653,7 +6708,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>96861</v>
       </c>
@@ -6703,7 +6758,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>96861</v>
       </c>
@@ -6753,7 +6808,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>96863</v>
       </c>
@@ -6803,7 +6858,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>96864</v>
       </c>
@@ -6844,7 +6899,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>96865</v>
       </c>
@@ -6894,7 +6949,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>96866</v>
       </c>
@@ -6944,7 +6999,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>96868</v>
       </c>
@@ -6985,7 +7040,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>96870</v>
       </c>
@@ -7026,7 +7081,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>96871</v>
       </c>
@@ -7067,7 +7122,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>96871</v>
       </c>
@@ -7108,7 +7163,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>96872</v>
       </c>
@@ -7158,7 +7213,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>96872</v>
       </c>
@@ -7208,7 +7263,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>96873</v>
       </c>
@@ -7258,7 +7313,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>96874</v>
       </c>
@@ -7308,7 +7363,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>96875</v>
       </c>
@@ -7349,7 +7404,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>96876</v>
       </c>
@@ -7390,7 +7445,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>96877</v>
       </c>
@@ -7431,7 +7486,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>96878</v>
       </c>
@@ -7481,7 +7536,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>96879</v>
       </c>
@@ -7522,7 +7577,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>96880</v>
       </c>
@@ -7563,7 +7618,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>96881</v>
       </c>
@@ -7613,7 +7668,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>96882</v>
       </c>
@@ -7654,7 +7709,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>96883</v>
       </c>
@@ -7695,7 +7750,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>96884</v>
       </c>
@@ -7736,7 +7791,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>96885</v>
       </c>
@@ -7786,7 +7841,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>96886</v>
       </c>
@@ -7836,7 +7891,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>96887</v>
       </c>
@@ -7886,7 +7941,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>96888</v>
       </c>
@@ -7927,7 +7982,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>96889</v>
       </c>
@@ -7977,7 +8032,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>96890</v>
       </c>
@@ -8018,7 +8073,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>96891</v>
       </c>
@@ -8059,7 +8114,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>96892</v>
       </c>
@@ -8109,7 +8164,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>96893</v>
       </c>
@@ -8159,7 +8214,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>96893</v>
       </c>
@@ -8209,7 +8264,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>96895</v>
       </c>
@@ -8259,7 +8314,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>96896</v>
       </c>
@@ -8300,7 +8355,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>96896</v>
       </c>
@@ -8341,7 +8396,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>96896</v>
       </c>
@@ -8382,7 +8437,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>96897</v>
       </c>
@@ -8432,7 +8487,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>96898</v>
       </c>
@@ -8473,7 +8528,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>96898</v>
       </c>
@@ -8514,7 +8569,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>96899</v>
       </c>
@@ -8555,7 +8610,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>96900</v>
       </c>
@@ -8605,7 +8660,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>96901</v>
       </c>
@@ -8646,7 +8701,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>96902</v>
       </c>
@@ -8687,7 +8742,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>96903</v>
       </c>
@@ -8728,7 +8783,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>96904</v>
       </c>
@@ -8778,7 +8833,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>96905</v>
       </c>
@@ -8819,7 +8874,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>96906</v>
       </c>
@@ -8860,7 +8915,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>96907</v>
       </c>
@@ -8901,7 +8956,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>96908</v>
       </c>
@@ -8951,7 +9006,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>96909</v>
       </c>
@@ -8992,7 +9047,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>96910</v>
       </c>
@@ -9042,7 +9097,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>96910</v>
       </c>
@@ -9092,7 +9147,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>96911</v>
       </c>
@@ -9133,7 +9188,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>96912</v>
       </c>
@@ -9174,7 +9229,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>96913</v>
       </c>
@@ -9224,7 +9279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>96914</v>
       </c>
@@ -9265,7 +9320,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>96915</v>
       </c>
@@ -9315,7 +9370,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>96917</v>
       </c>
@@ -9356,7 +9411,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>96918</v>
       </c>
@@ -9397,7 +9452,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>96919</v>
       </c>
@@ -9438,7 +9493,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>96919</v>
       </c>
@@ -9479,7 +9534,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>96919</v>
       </c>
@@ -9520,7 +9575,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>96920</v>
       </c>
@@ -9561,7 +9616,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>96921</v>
       </c>
@@ -9602,7 +9657,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>96921</v>
       </c>
@@ -9643,7 +9698,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>96921</v>
       </c>
@@ -9684,7 +9739,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>96921</v>
       </c>
@@ -9725,7 +9780,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>96921</v>
       </c>
@@ -9766,7 +9821,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>96922</v>
       </c>
